--- a/Wiki/@TSmatch Wiki/TSmatch Modules.xlsx
+++ b/Wiki/@TSmatch Wiki/TSmatch Modules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Desktop\TSmatch\C#\Wiki\@TSmatch Wiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Desktop\TSmatch\Wiki\@TSmatch Wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>C#</t>
   </si>
@@ -38,18 +38,9 @@
     <t>строк</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>отладка и головная программа</t>
-  </si>
-  <si>
     <t>Declaration</t>
   </si>
   <si>
-    <t>все глобальные константы</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -62,18 +53,12 @@
     <t>описание</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
     <t>Matcher</t>
   </si>
   <si>
     <t>Модуль</t>
   </si>
   <si>
-    <t>поиск сортаментов для модели в соответствии с Правилами</t>
-  </si>
-  <si>
     <t>Rule</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>getModel(name)</t>
   </si>
   <si>
-    <t>управление моделями конструкций</t>
-  </si>
-  <si>
     <t>Model(DateTime, string, string, string, string md5, List&lt;Mtch.Rule&gt; r)</t>
   </si>
   <si>
@@ -149,18 +131,6 @@
     <t>getDoc(name)</t>
   </si>
   <si>
-    <t>NewSheet(name)</t>
-  </si>
-  <si>
-    <t>loadDoc(string name, Excel.Workbook wb)</t>
-  </si>
-  <si>
-    <t>Reset()</t>
-  </si>
-  <si>
-    <t>saveDoc(name)</t>
-  </si>
-  <si>
     <t>FileOp</t>
   </si>
   <si>
@@ -185,30 +155,18 @@
     <t>ToStrList()</t>
   </si>
   <si>
-    <t xml:space="preserve"> ToStrList(string s, char separator = ',')</t>
-  </si>
-  <si>
-    <t>IContains(List&lt;string&gt; lst, string v)</t>
-  </si>
-  <si>
     <t>Matrix</t>
   </si>
   <si>
     <t>Matr[i, j]</t>
   </si>
   <si>
-    <t>AddRow(int index)</t>
-  </si>
-  <si>
     <t>TS_OpenAPI</t>
   </si>
   <si>
     <t>TS.Read()</t>
   </si>
   <si>
-    <t>чтение модели из Tekla</t>
-  </si>
-  <si>
     <t>GetTeklaDir(int mode = -1)</t>
   </si>
   <si>
@@ -221,15 +179,6 @@
     <t>TS.ModInfo</t>
   </si>
   <si>
-    <t>работа с документами - прайс-листами поставщиков компонентов</t>
-  </si>
-  <si>
-    <t>базовый класс Документов</t>
-  </si>
-  <si>
-    <t>работа с файловой системы</t>
-  </si>
-  <si>
     <t>библиотека общих методов и классов, Log</t>
   </si>
   <si>
@@ -242,39 +191,12 @@
     <t>check if Tekla application is up and running</t>
   </si>
   <si>
-    <t>EOL</t>
-  </si>
-  <si>
-    <t>setul EOLinTOC, i0, and il for Document</t>
-  </si>
-  <si>
-    <t>Dictionary - collection of Documents</t>
-  </si>
-  <si>
-    <t>Documents[doc.name]</t>
-  </si>
-  <si>
-    <t>Forms{name, List row, List col}</t>
-  </si>
-  <si>
-    <t>class defined Format of the Document</t>
-  </si>
-  <si>
-    <t>Initialize Documents from TOC - Table of Content</t>
-  </si>
-  <si>
     <t>Bootstrap</t>
   </si>
   <si>
     <t>Bootstrap()</t>
   </si>
   <si>
-    <t>начальная загрузка, проверка наличия файлов, и, если надо - восстановление из дистрибутива</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>Renew(dir, name)</t>
   </si>
   <si>
@@ -296,9 +218,6 @@
     <t>Get Supplier Listr from TSmatch.xlsx/Suppliers</t>
   </si>
   <si>
-    <t>getSupplier(name)</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -320,15 +239,9 @@
     <t>Resourset for Tsmatch operation chech and update when necessary</t>
   </si>
   <si>
-    <t>Dpar</t>
-  </si>
-  <si>
     <t>ElmAttSet</t>
   </si>
   <si>
-    <t>Form1</t>
-  </si>
-  <si>
     <t>IFC</t>
   </si>
   <si>
@@ -336,6 +249,138 @@
   </si>
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>App.config</t>
+  </si>
+  <si>
+    <t>log4net configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier's price-list load and handling </t>
+  </si>
+  <si>
+    <t>Set of Components from the Supplier' price-list</t>
+  </si>
+  <si>
+    <t>provide initial start of TSmatch, when necessary - recovery of resources</t>
+  </si>
+  <si>
+    <t>Common constatnt and readonly declaranion module</t>
+  </si>
+  <si>
+    <t>works with all Documents in the system basing on TOC - Table Of Content</t>
+  </si>
+  <si>
+    <t>DPar</t>
+  </si>
+  <si>
+    <t>parse Section to get section parameters in Dictionaries dpar and dpStr</t>
+  </si>
+  <si>
+    <t>Definitions of Model Elements Properties, and their Groups</t>
+  </si>
+  <si>
+    <t>File System primitives</t>
+  </si>
+  <si>
+    <t>Interaction with model in IFC file.</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Interface for CAD system Adapters - now Tekla and IFC.</t>
+  </si>
+  <si>
+    <t>MainWindow.xaml</t>
+  </si>
+  <si>
+    <t>Main Window XAML design</t>
+  </si>
+  <si>
+    <t>MainWindow.xaml.cs</t>
+  </si>
+  <si>
+    <t>WPF Main Windows</t>
+  </si>
+  <si>
+    <t>module fulfill matching Group of the Elements with CompSet in accrding with Rule</t>
+  </si>
+  <si>
+    <t>MD5Gen</t>
+  </si>
+  <si>
+    <t>MD5 calculation from Internet</t>
+  </si>
+  <si>
+    <t>ModHandler:Model</t>
+  </si>
+  <si>
+    <t>Handle Model for Report preparation</t>
+  </si>
+  <si>
+    <t>class and major methods of Model</t>
+  </si>
+  <si>
+    <t>class dealing a string like "tx{par}"</t>
+  </si>
+  <si>
+    <t>PiceList</t>
+  </si>
+  <si>
+    <t>class for Price List checking in data base</t>
+  </si>
+  <si>
+    <t>Rule, which describes how to find Components used in Model in Supplier's price-list</t>
+  </si>
+  <si>
+    <t>SavedReport</t>
+  </si>
+  <si>
+    <t>class for handle saved reports in TSmatchINFO.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class dealing with the fragment of string related to some section - f.e. Material, or Price</t>
+  </si>
+  <si>
+    <t>Serialyzed_objects</t>
+  </si>
+  <si>
+    <t>containes serialysed list of obect for MD5 key generation</t>
+  </si>
+  <si>
+    <t>Interaction with Tekla Structure over Open API</t>
+  </si>
+  <si>
+    <t>W_Rules.xaml</t>
+  </si>
+  <si>
+    <t>W_Rules design</t>
+  </si>
+  <si>
+    <t>W_Rules.cs</t>
+  </si>
+  <si>
+    <t>WPF Window W_Rules</t>
+  </si>
+  <si>
+    <t>W_Supplier</t>
+  </si>
+  <si>
+    <t>W_Supplier design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W_Supplier </t>
+  </si>
+  <si>
+    <t>1/1/212</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>save and restore serialyzed object in XML file</t>
   </si>
 </sst>
 </file>
@@ -863,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -880,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
-        <v>42839</v>
+        <v>42892</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -894,698 +939,771 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>42430</v>
+        <v>42887</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>42459</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>42459</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>42879</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>323</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>42890</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>326</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>42427</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>42884</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>42884</v>
+      </c>
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" t="s">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>226</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="G16" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17"/>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="9"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>42750</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>284</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6"/>
-      <c r="C6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    </row>
+    <row r="19" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>42419</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>42429</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>42412</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>42430</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>42444</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>419</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>42419</v>
-      </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>42429</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>42412</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>42430</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>42862</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>42448</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>884</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>975</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>42889</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>42527</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
+        <v>42884</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>419</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>42439</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30">
-        <v>351</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>42448</v>
-      </c>
       <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>42862</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>384</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>42966</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>530</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>42969</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>42887</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>156</v>
+      </c>
+      <c r="G37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>42455</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>186</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>42427</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>42827</v>
+        <v>42889</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D38">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>42794</v>
+        <v>42890</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>326</v>
+        <v>662</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" t="s">
-        <v>77</v>
+      <c r="C41" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>42448</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s">
-        <v>78</v>
+      <c r="C42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>42459</v>
-      </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>42448</v>
+        <v>42419</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>41281</v>
-      </c>
       <c r="C45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>42879</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>42386</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>429</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>42386</v>
+        <v>42428</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>450</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>42387</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>39650</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48">
+        <v>126</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>42643</v>
+        <v>42877</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
       </c>
       <c r="D49">
-        <v>445</v>
+        <v>191</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>42835</v>
+        <v>42885</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>965</v>
+        <v>775</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>42890</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51">
+        <v>239</v>
+      </c>
+      <c r="G51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>42822</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>141</v>
+      </c>
+      <c r="G52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>42884</v>
+      </c>
       <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
         <v>101</v>
       </c>
-      <c r="D53">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>42884</v>
+      </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>42889</v>
+      </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
       <c r="D55">
+        <v>380</v>
+      </c>
+      <c r="G55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>42828</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>42864</v>
+      </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D57">
-        <v>127</v>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>42452</v>
+        <v>42884</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>124</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>42459</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>42459</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>42834</v>
-      </c>
-      <c r="B63" t="s">
-        <v>79</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63">
-        <v>675</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>42527</v>
+      </c>
       <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>42884</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>390</v>
+      </c>
+      <c r="G65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>42887</v>
+      </c>
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>42880</v>
+      </c>
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>42748</v>
+        <v>42887</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D68">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>42876</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69">
+        <v>142</v>
+      </c>
+      <c r="G69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>42421</v>
-      </c>
-      <c r="B71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71">
-        <v>475</v>
-      </c>
-      <c r="G71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>42810</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
-        <v>42428</v>
-      </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75">
-        <v>450</v>
-      </c>
-      <c r="G75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16">
-        <f>SUM(D4:D75)</f>
-        <v>8175</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
+      <c r="G70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16">
+        <f>SUM(D16:D70)</f>
+        <v>8088</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
